--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="13280" tabRatio="500"/>
+    <workbookView xWindow="-680" yWindow="280" windowWidth="21360" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exportedcourse (1).csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>Last Name</t>
   </si>
@@ -323,6 +323,14 @@
   </si>
   <si>
     <t>W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,15 +705,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,8 +732,14 @@
       <c r="F1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -744,8 +758,14 @@
       <c r="F2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -764,8 +784,14 @@
       <c r="F3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -784,8 +810,14 @@
       <c r="F4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -804,8 +836,14 @@
       <c r="F5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -824,8 +862,14 @@
       <c r="F6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -844,8 +888,14 @@
       <c r="F7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -864,8 +914,14 @@
       <c r="F8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -884,8 +940,14 @@
       <c r="F9">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -904,8 +966,14 @@
       <c r="F10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -924,8 +992,14 @@
       <c r="F11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -944,8 +1018,14 @@
       <c r="F12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -964,8 +1044,14 @@
       <c r="F13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -984,8 +1070,14 @@
       <c r="F14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1004,8 +1096,14 @@
       <c r="F15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1024,8 +1122,14 @@
       <c r="F16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1044,8 +1148,14 @@
       <c r="F17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1064,8 +1174,14 @@
       <c r="F18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1084,8 +1200,14 @@
       <c r="F19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1104,8 +1226,14 @@
       <c r="F20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1124,8 +1252,14 @@
       <c r="F21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1144,8 +1278,14 @@
       <c r="F22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1164,8 +1304,14 @@
       <c r="F23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1184,8 +1330,14 @@
       <c r="F24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1204,8 +1356,14 @@
       <c r="F25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1224,8 +1382,14 @@
       <c r="F26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1244,8 +1408,14 @@
       <c r="F27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1264,8 +1434,14 @@
       <c r="F28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1284,8 +1460,14 @@
       <c r="F29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1304,8 +1486,14 @@
       <c r="F30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1324,8 +1512,14 @@
       <c r="F31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1344,8 +1538,14 @@
       <c r="F32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1363,6 +1563,12 @@
       </c>
       <c r="F33">
         <v>50</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-680" yWindow="280" windowWidth="21360" windowHeight="13280" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="19740" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exportedcourse (1).csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Last Name</t>
   </si>
@@ -331,6 +331,14 @@
   </si>
   <si>
     <t>W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,15 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H33"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +746,14 @@
       <c r="H1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -764,8 +778,14 @@
       <c r="H2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -790,8 +810,14 @@
       <c r="H3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -816,8 +842,14 @@
       <c r="H4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -842,8 +874,14 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -868,8 +906,14 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -894,8 +938,14 @@
       <c r="H7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -920,8 +970,14 @@
       <c r="H8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -946,8 +1002,14 @@
       <c r="H9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -972,8 +1034,14 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -998,8 +1066,14 @@
       <c r="H11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1024,8 +1098,14 @@
       <c r="H12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1050,8 +1130,14 @@
       <c r="H13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1076,8 +1162,14 @@
       <c r="H14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1102,8 +1194,14 @@
       <c r="H15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1128,8 +1226,14 @@
       <c r="H16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1154,8 +1258,14 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1180,8 +1290,14 @@
       <c r="H18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1206,8 +1322,14 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1232,8 +1354,14 @@
       <c r="H20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1258,8 +1386,14 @@
       <c r="H21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1284,8 +1418,14 @@
       <c r="H22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1310,8 +1450,14 @@
       <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1336,8 +1482,14 @@
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1362,8 +1514,14 @@
       <c r="H25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1388,8 +1546,14 @@
       <c r="H26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1414,8 +1578,14 @@
       <c r="H27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1440,8 +1610,14 @@
       <c r="H28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1466,8 +1642,14 @@
       <c r="H29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1492,8 +1674,14 @@
       <c r="H30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1518,8 +1706,14 @@
       <c r="H31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1544,8 +1738,14 @@
       <c r="H32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1569,6 +1769,12 @@
       </c>
       <c r="H33">
         <v>4</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
   <si>
     <t>Last Name</t>
   </si>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>W3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,15 +721,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,8 +760,14 @@
       <c r="J1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -784,8 +798,14 @@
       <c r="J2">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -816,8 +836,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -848,8 +874,14 @@
       <c r="J4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -880,8 +912,14 @@
       <c r="J5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -912,8 +950,14 @@
       <c r="J6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -944,8 +988,14 @@
       <c r="J7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -976,8 +1026,14 @@
       <c r="J8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1008,8 +1064,14 @@
       <c r="J9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1040,8 +1102,14 @@
       <c r="J10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1072,8 +1140,14 @@
       <c r="J11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1104,8 +1178,14 @@
       <c r="J12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1136,8 +1216,14 @@
       <c r="J13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1168,8 +1254,14 @@
       <c r="J14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1200,8 +1292,14 @@
       <c r="J15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1232,8 +1330,14 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1264,8 +1368,14 @@
       <c r="J17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1296,8 +1406,14 @@
       <c r="J18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="J19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="J20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1392,8 +1520,14 @@
       <c r="J21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1424,8 +1558,14 @@
       <c r="J22">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1456,8 +1596,14 @@
       <c r="J23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1488,8 +1634,14 @@
       <c r="J24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1520,8 +1672,14 @@
       <c r="J25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1552,8 +1710,14 @@
       <c r="J26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1584,8 +1748,14 @@
       <c r="J27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1616,8 +1786,14 @@
       <c r="J28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1648,8 +1824,14 @@
       <c r="J29">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1680,8 +1862,14 @@
       <c r="J30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1712,8 +1900,14 @@
       <c r="J31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1744,8 +1938,14 @@
       <c r="J32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1774,13 +1974,18 @@
         <v>4</v>
       </c>
       <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="19740" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="560" windowWidth="25220" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exportedcourse (1).csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Last Name</t>
   </si>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>W4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,12 +362,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -721,15 +723,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,8 +768,14 @@
       <c r="L1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -804,8 +812,14 @@
       <c r="L2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -842,8 +856,14 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -880,8 +900,14 @@
       <c r="L4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -918,8 +944,14 @@
       <c r="L5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -956,8 +988,14 @@
       <c r="L6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -994,8 +1032,14 @@
       <c r="L7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1032,8 +1076,14 @@
       <c r="L8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1070,8 +1120,14 @@
       <c r="L9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1108,8 +1164,14 @@
       <c r="L10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1146,8 +1208,14 @@
       <c r="L11">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1184,8 +1252,14 @@
       <c r="L12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1222,8 +1296,14 @@
       <c r="L13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1260,8 +1340,14 @@
       <c r="L14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1298,8 +1384,14 @@
       <c r="L15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1336,8 +1428,14 @@
       <c r="L16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1374,8 +1472,14 @@
       <c r="L17">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1412,8 +1516,14 @@
       <c r="L18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1450,8 +1560,14 @@
       <c r="L19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1488,8 +1604,14 @@
       <c r="L20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1526,8 +1648,14 @@
       <c r="L21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1564,8 +1692,14 @@
       <c r="L22">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1602,8 +1736,14 @@
       <c r="L23">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1640,8 +1780,14 @@
       <c r="L24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1678,8 +1824,14 @@
       <c r="L25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1716,8 +1868,14 @@
       <c r="L26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1754,8 +1912,14 @@
       <c r="L27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1792,8 +1956,14 @@
       <c r="L28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -1830,8 +2000,14 @@
       <c r="L29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1868,8 +2044,14 @@
       <c r="L30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -1906,8 +2088,14 @@
       <c r="L31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -1944,8 +2132,14 @@
       <c r="L32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1981,6 +2175,12 @@
       </c>
       <c r="L33">
         <v>50</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="560" windowWidth="25220" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="20240" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exportedcourse (1).csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="113">
   <si>
     <t>Last Name</t>
   </si>
@@ -355,6 +355,22 @@
   </si>
   <si>
     <t>W5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,6 +378,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -723,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2183,9 +2205,870 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:14">
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>46</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>44</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>46</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>49</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>44</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>46</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>46</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>46</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>44</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>49</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>49</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>36</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>49</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="20240" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="20240" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="exportedcourse (1).csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="115">
   <si>
     <t>Last Name</t>
   </si>
@@ -371,6 +371,14 @@
   </si>
   <si>
     <t>W7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +756,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="J65" sqref="J65:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2218,6 +2226,12 @@
       <c r="H37" t="s">
         <v>112</v>
       </c>
+      <c r="I37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
@@ -2256,6 +2270,12 @@
         <v>2</v>
       </c>
       <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
         <v>50</v>
       </c>
     </row>
@@ -2284,6 +2304,12 @@
       <c r="H40">
         <v>50</v>
       </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
@@ -2310,6 +2336,12 @@
       <c r="H41">
         <v>50</v>
       </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
@@ -2336,6 +2368,12 @@
       <c r="H42">
         <v>44</v>
       </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
@@ -2362,6 +2400,12 @@
       <c r="H43">
         <v>48</v>
       </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
@@ -2388,6 +2432,12 @@
       <c r="H44">
         <v>48</v>
       </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>48</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
@@ -2414,6 +2464,12 @@
       <c r="H45">
         <v>44</v>
       </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
@@ -2440,6 +2496,12 @@
       <c r="H46">
         <v>44</v>
       </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
@@ -2466,6 +2528,12 @@
       <c r="H47">
         <v>50</v>
       </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
@@ -2492,8 +2560,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2592,14 @@
       <c r="H49">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2544,8 +2624,14 @@
       <c r="H50">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2570,8 +2656,14 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -2596,8 +2688,14 @@
       <c r="H52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2622,8 +2720,14 @@
       <c r="H53">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2648,8 +2752,14 @@
       <c r="H54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2674,8 +2784,14 @@
       <c r="H55">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2700,8 +2816,14 @@
       <c r="H56">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2726,8 +2848,14 @@
       <c r="H57">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2752,8 +2880,14 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2778,8 +2912,14 @@
       <c r="H59">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2804,8 +2944,14 @@
       <c r="H60">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2830,8 +2976,14 @@
       <c r="H61">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -2856,8 +3008,14 @@
       <c r="H62">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2882,8 +3040,14 @@
       <c r="H63">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -2908,8 +3072,14 @@
       <c r="H64">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -2934,8 +3104,14 @@
       <c r="H65">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -2960,8 +3136,14 @@
       <c r="H66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -2986,8 +3168,14 @@
       <c r="H67">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -3012,8 +3200,14 @@
       <c r="H68">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -3038,8 +3232,14 @@
       <c r="H69">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -3064,8 +3264,15 @@
       <c r="H70">
         <v>50</v>
       </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/teaching/10550/section-2/10550-2.xlsx
+++ b/teaching/10550/section-2/10550-2.xlsx
@@ -386,12 +386,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -755,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65:J70"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2558,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2651,10 +2645,10 @@
         <v>49</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -3272,10 +3266,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
